--- a/data_year/zb/资源和环境/供水用水情况.xlsx
+++ b/data_year/zb/资源和环境/供水用水情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,630 +488,466 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428</v>
+        <v>450.173601296</v>
       </c>
       <c r="C2" t="n">
-        <v>5547.8</v>
+        <v>6021.9940648307</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2</v>
+        <v>33.1161472217</v>
       </c>
       <c r="E2" t="n">
-        <v>3585.7</v>
+        <v>3689.1423484039</v>
       </c>
       <c r="F2" t="n">
-        <v>1026.4</v>
+        <v>1107.3119494012</v>
       </c>
       <c r="G2" t="n">
-        <v>4504.2</v>
+        <v>4881.5719861294</v>
       </c>
       <c r="H2" t="n">
-        <v>1228.9</v>
+        <v>1447.3041838403</v>
       </c>
       <c r="I2" t="n">
-        <v>82</v>
+        <v>119.7652731482</v>
       </c>
       <c r="J2" t="n">
-        <v>651.2</v>
+        <v>765.8294934808</v>
       </c>
       <c r="K2" t="n">
-        <v>5547.8</v>
+        <v>6021.9947732168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.0697695824</v>
+        <v>454.1</v>
       </c>
       <c r="C3" t="n">
-        <v>5632.98</v>
+        <v>6107.2</v>
       </c>
       <c r="D3" t="n">
-        <v>21.96</v>
+        <v>44.8</v>
       </c>
       <c r="E3" t="n">
-        <v>3580</v>
+        <v>3743.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1038.83</v>
+        <v>1109.1</v>
       </c>
       <c r="G3" t="n">
-        <v>4572.19</v>
+        <v>4953.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1285.2</v>
+        <v>1461.8</v>
       </c>
       <c r="I3" t="n">
-        <v>92.68000000000001</v>
+        <v>111.9</v>
       </c>
       <c r="J3" t="n">
-        <v>675.1</v>
+        <v>789.9</v>
       </c>
       <c r="K3" t="n">
-        <v>5632.98</v>
+        <v>6107.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>442.0198790661</v>
+        <v>452.8</v>
       </c>
       <c r="C4" t="n">
-        <v>5794.9665751969</v>
+        <v>6131.2</v>
       </c>
       <c r="D4" t="n">
-        <v>22.7021991108</v>
+        <v>44.6</v>
       </c>
       <c r="E4" t="n">
-        <v>3664.4491486077</v>
+        <v>3902.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1065.5172542046</v>
+        <v>1133.8</v>
       </c>
       <c r="G4" t="n">
-        <v>4706.7471218814</v>
+        <v>4952.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1343.7608769913</v>
+        <v>1380.7</v>
       </c>
       <c r="I4" t="n">
-        <v>93.0032272644</v>
+        <v>108.3</v>
       </c>
       <c r="J4" t="n">
-        <v>693.7557656685</v>
+        <v>739.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5794.9690185319</v>
+        <v>6131.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>441.5156712124</v>
+        <v>453.6</v>
       </c>
       <c r="C5" t="n">
-        <v>5818.6698273416</v>
+        <v>6183.4469619851</v>
       </c>
       <c r="D5" t="n">
-        <v>25.6993142099</v>
+        <v>49.9381785</v>
       </c>
       <c r="E5" t="n">
-        <v>3599.5111068593</v>
+        <v>3921.5187640178</v>
       </c>
       <c r="F5" t="n">
-        <v>1069.0630165066</v>
+        <v>1126.2155546562</v>
       </c>
       <c r="G5" t="n">
-        <v>4723.9003658144</v>
+        <v>5007.2944170335</v>
       </c>
       <c r="H5" t="n">
-        <v>1403.0359816603</v>
+        <v>1406.4047899986</v>
       </c>
       <c r="I5" t="n">
-        <v>105.7290012191</v>
+        <v>105.3833581482</v>
       </c>
       <c r="J5" t="n">
-        <v>710.3920078187</v>
+        <v>750.1037174831</v>
       </c>
       <c r="K5" t="n">
-        <v>5818.6688035574</v>
+        <v>6183.4492749996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.1501296564</v>
+        <v>444.3</v>
       </c>
       <c r="C6" t="n">
-        <v>5909.95</v>
+        <v>6094.8756378811</v>
       </c>
       <c r="D6" t="n">
-        <v>28.74</v>
+        <v>57.4585862442</v>
       </c>
       <c r="E6" t="n">
-        <v>3663.46</v>
+        <v>3868.9778976547</v>
       </c>
       <c r="F6" t="n">
-        <v>1084.79</v>
+        <v>1116.9427348121</v>
       </c>
       <c r="G6" t="n">
-        <v>4796.42</v>
+        <v>4920.4614523704</v>
       </c>
       <c r="H6" t="n">
-        <v>1397.08</v>
+        <v>1356.1008378263</v>
       </c>
       <c r="I6" t="n">
-        <v>120.16</v>
+        <v>103.2003441773</v>
       </c>
       <c r="J6" t="n">
-        <v>729.25</v>
+        <v>766.5785588767</v>
       </c>
       <c r="K6" t="n">
-        <v>5909.95</v>
+        <v>6094.8567782997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>448.1</v>
+        <v>442.3</v>
       </c>
       <c r="C7" t="n">
-        <v>5965.151465247</v>
+        <v>6103.2</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1623680788</v>
+        <v>64.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3723.1145788271</v>
+        <v>3852.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1094.523927066</v>
+        <v>1069.2</v>
       </c>
       <c r="G7" t="n">
-        <v>4839.4651248622</v>
+        <v>4969.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1390.9024267202</v>
+        <v>1334.8</v>
       </c>
       <c r="I7" t="n">
-        <v>102.963003263</v>
+        <v>122.7</v>
       </c>
       <c r="J7" t="n">
-        <v>748.1651137886</v>
+        <v>793.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5965.1545771523</v>
+        <v>6103.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>450.173601296</v>
+        <v>435.2</v>
       </c>
       <c r="C8" t="n">
-        <v>6021.9940648307</v>
+        <v>6040.1644952724</v>
       </c>
       <c r="D8" t="n">
-        <v>33.1161472217</v>
+        <v>70.8471407941</v>
       </c>
       <c r="E8" t="n">
-        <v>3689.1423484039</v>
+        <v>3768</v>
       </c>
       <c r="F8" t="n">
-        <v>1107.3119494012</v>
+        <v>1056.9959169275</v>
       </c>
       <c r="G8" t="n">
-        <v>4881.5719861294</v>
+        <v>4912.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1447.3041838403</v>
+        <v>1308</v>
       </c>
       <c r="I8" t="n">
-        <v>119.7652731482</v>
+        <v>142.6</v>
       </c>
       <c r="J8" t="n">
-        <v>765.8294934808</v>
+        <v>821.6</v>
       </c>
       <c r="K8" t="n">
-        <v>6021.9947732168</v>
+        <v>6040.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>454.1</v>
+        <v>432.8</v>
       </c>
       <c r="C9" t="n">
-        <v>6107.2</v>
+        <v>6043.4</v>
       </c>
       <c r="D9" t="n">
-        <v>44.8</v>
+        <v>81.2</v>
       </c>
       <c r="E9" t="n">
-        <v>3743.6</v>
+        <v>3766.4</v>
       </c>
       <c r="F9" t="n">
-        <v>1109.1</v>
+        <v>1016.7</v>
       </c>
       <c r="G9" t="n">
-        <v>4953.3</v>
+        <v>4945.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1461.8</v>
+        <v>1277</v>
       </c>
       <c r="I9" t="n">
-        <v>111.9</v>
+        <v>161.9</v>
       </c>
       <c r="J9" t="n">
-        <v>789.9</v>
+        <v>838.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6107.2</v>
+        <v>6043.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.8</v>
+        <v>428.8</v>
       </c>
       <c r="C10" t="n">
-        <v>6131.2</v>
+        <v>6015.5</v>
       </c>
       <c r="D10" t="n">
-        <v>44.6</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>3902.5</v>
+        <v>3693.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1133.8</v>
+        <v>976.4</v>
       </c>
       <c r="G10" t="n">
-        <v>4952.8</v>
+        <v>4952.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1380.7</v>
+        <v>1261.6</v>
       </c>
       <c r="I10" t="n">
-        <v>108.3</v>
+        <v>200.9</v>
       </c>
       <c r="J10" t="n">
-        <v>739.7</v>
+        <v>859.9</v>
       </c>
       <c r="K10" t="n">
-        <v>6131.2</v>
+        <v>6015.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.6</v>
+        <v>427.7</v>
       </c>
       <c r="C11" t="n">
-        <v>6183.4469619851</v>
+        <v>6021.2</v>
       </c>
       <c r="D11" t="n">
-        <v>49.9381785</v>
+        <v>104.5</v>
       </c>
       <c r="E11" t="n">
-        <v>3921.5187640178</v>
+        <v>3682.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1126.2155546562</v>
+        <v>934.2</v>
       </c>
       <c r="G11" t="n">
-        <v>5007.2944170335</v>
+        <v>4982.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1406.4047899986</v>
+        <v>1217.6</v>
       </c>
       <c r="I11" t="n">
-        <v>105.3833581482</v>
+        <v>249.6</v>
       </c>
       <c r="J11" t="n">
-        <v>750.1037174831</v>
+        <v>871.7</v>
       </c>
       <c r="K11" t="n">
-        <v>6183.4492749996</v>
+        <v>6021.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>444.3</v>
+        <v>411.9</v>
       </c>
       <c r="C12" t="n">
-        <v>6094.8756378811</v>
+        <v>5812.9</v>
       </c>
       <c r="D12" t="n">
-        <v>57.4585862442</v>
+        <v>128.1</v>
       </c>
       <c r="E12" t="n">
-        <v>3868.9778976547</v>
+        <v>3612.4</v>
       </c>
       <c r="F12" t="n">
-        <v>1116.9427348121</v>
+        <v>892.5</v>
       </c>
       <c r="G12" t="n">
-        <v>4920.4614523704</v>
+        <v>4792.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1356.1008378263</v>
+        <v>1030.4</v>
       </c>
       <c r="I12" t="n">
-        <v>103.2003441773</v>
+        <v>307</v>
       </c>
       <c r="J12" t="n">
-        <v>766.5785588767</v>
+        <v>863.1</v>
       </c>
       <c r="K12" t="n">
-        <v>6094.8567782997</v>
+        <v>5812.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>442.3</v>
+        <v>419.170749667224</v>
       </c>
       <c r="C13" t="n">
-        <v>6103.2</v>
+        <v>5920.2</v>
       </c>
       <c r="D13" t="n">
-        <v>64.5</v>
+        <v>138.3</v>
       </c>
       <c r="E13" t="n">
-        <v>3852.2</v>
+        <v>3644.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1069.2</v>
+        <v>853.8</v>
       </c>
       <c r="G13" t="n">
-        <v>4969.5</v>
+        <v>4928.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1334.8</v>
+        <v>1049.6</v>
       </c>
       <c r="I13" t="n">
-        <v>122.7</v>
+        <v>316.9</v>
       </c>
       <c r="J13" t="n">
-        <v>793.5</v>
+        <v>909.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6103.2</v>
+        <v>5920.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6040.1644952724</v>
-      </c>
-      <c r="D14" t="n">
-        <v>70.8471407941</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3768</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1056.9959169275</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4912.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1308</v>
-      </c>
-      <c r="I14" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>821.6</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>6040.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>432.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6043.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3766.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1016.7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4945.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1277</v>
-      </c>
-      <c r="I15" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>838.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6043.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>428.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6015.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3693.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>976.4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4952.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1261.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>200.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>859.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6015.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>427.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6021.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3682.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>934.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4982.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1217.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>871.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6021.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>411.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5812.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3612.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>892.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4792.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1030.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>307</v>
-      </c>
-      <c r="J18" t="n">
-        <v>863.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5812.9</v>
+        <v>5997</v>
       </c>
     </row>
   </sheetData>
